--- a/output/missing-values-douching.xlsx
+++ b/output/missing-values-douching.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <si>
     <t xml:space="preserve">pid</t>
   </si>
@@ -74,6 +74,9 @@
     <t xml:space="preserve">TSH0018</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0019</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0020</t>
   </si>
   <si>
@@ -98,6 +101,9 @@
     <t xml:space="preserve">TSH0027</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0073</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0080</t>
   </si>
   <si>
@@ -107,6 +113,21 @@
     <t xml:space="preserve">TSH0117</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0353</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0423</t>
   </si>
   <si>
@@ -137,6 +158,9 @@
     <t xml:space="preserve">TSH0689</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0697</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0711</t>
   </si>
   <si>
@@ -155,12 +179,24 @@
     <t xml:space="preserve">TSH0781</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0824</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0834</t>
   </si>
   <si>
     <t xml:space="preserve">TSH0857</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0874</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0916</t>
   </si>
   <si>
@@ -173,9 +209,15 @@
     <t xml:space="preserve">TSH0927</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0933</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0939</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0942</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0967</t>
   </si>
   <si>
@@ -290,6 +332,9 @@
     <t xml:space="preserve">TSH1250</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1339</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1361</t>
   </si>
   <si>
@@ -368,15 +413,18 @@
     <t xml:space="preserve">TSH1647</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1749</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1802</t>
   </si>
   <si>
     <t xml:space="preserve">TSH1803</t>
   </si>
   <si>
-    <t xml:space="preserve">TSH1820</t>
-  </si>
-  <si>
     <t xml:space="preserve">TSH1919</t>
   </si>
   <si>
@@ -387,6 +435,12 @@
   </si>
   <si>
     <t xml:space="preserve">TSH1925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1961</t>
   </si>
 </sst>
 </file>
@@ -884,7 +938,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B28"/>
     </row>
@@ -908,7 +962,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B32"/>
     </row>
@@ -920,7 +974,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B34"/>
     </row>
@@ -1448,75 +1502,183 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B122"/>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B123"/>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B124"/>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B125"/>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B126"/>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B127"/>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B128"/>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B129"/>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B130"/>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B131"/>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B132"/>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B133"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>126</v>
+      </c>
+      <c r="B134"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>127</v>
+      </c>
+      <c r="B135"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>128</v>
+      </c>
+      <c r="B136"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>128</v>
+      </c>
+      <c r="B137"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>129</v>
+      </c>
+      <c r="B138"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>130</v>
+      </c>
+      <c r="B139"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>131</v>
+      </c>
+      <c r="B140"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>132</v>
+      </c>
+      <c r="B141"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>133</v>
+      </c>
+      <c r="B142"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>134</v>
+      </c>
+      <c r="B143"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>135</v>
+      </c>
+      <c r="B144"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>136</v>
+      </c>
+      <c r="B145"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>137</v>
+      </c>
+      <c r="B146"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>138</v>
+      </c>
+      <c r="B147"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>139</v>
+      </c>
+      <c r="B148"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>140</v>
+      </c>
+      <c r="B149"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>141</v>
+      </c>
+      <c r="B150"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>142</v>
+      </c>
+      <c r="B151"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
